--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Consent|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -683,7 +683,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1505,7 +1505,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="107.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -683,7 +683,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1505,7 +1505,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="107.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.0703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Consent|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -683,7 +683,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1505,7 +1505,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="107.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-consent-accord.xlsx
+++ b/main/ig/StructureDefinition-tddui-consent-accord.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
